--- a/biology/Botanique/Anémone_pulsatille/Anémone_pulsatille.xlsx
+++ b/biology/Botanique/Anémone_pulsatille/Anémone_pulsatille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_pulsatille</t>
+          <t>Anémone_pulsatille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulsatilla vulgaris
 L'anémone pulsatille ou coquerelle (Pulsatilla vulgaris Mill.) est une espèce de plantes à fleurs de la famille des renonculacées.
-Anemone pulsatilla est un synonyme[1].
+Anemone pulsatilla est un synonyme.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_pulsatille</t>
+          <t>Anémone_pulsatille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace. Très proche de la pulsatille des montagnes (Pulsatilla montana syn. Anemone montana), elle mesure de 10 à 30 cm. Les feuilles en rosette sont argentées, velues et pétiolées. Les fleurs sont violet-noir, pourpres, rouges (variété rubra) ou blanches (var.  alba).
 L'anémone pulsatille bénéficie d'une réglementation (cueillette et ramassage) dans plusieurs départements, d'une protection dans certaines régions de France (article 1).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_pulsatille</t>
+          <t>Anémone_pulsatille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce pousse en Europe. Elle est présente au Royaume-Uni, en France, en Belgique, en Allemagne, en Suisse, dans le Nord de l'Italie, en Autriche, en Pologne, en République tchèque et Slovaquie, en Hongrie, en Norvège, en Suède et au Danemark.
-Elle vit dans les prairies sèches[2].
+Elle vit dans les prairies sèches.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_pulsatille</t>
+          <t>Anémone_pulsatille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs, séchées au four et pulvérisées, permettent l'élaboration d'une poudre à éternuer réputée pour chasser les migraines.
 Fraîche, cette plante est toxique, caustique et irritante.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>An%C3%A9mone_pulsatille</t>
+          <t>Anémone_pulsatille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est toxique en raison de la ranunculine (en) contenue dans ses feuilles et ses racines. Ce glycoside se transforme en anémonine lorsque la plante est séchée[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est toxique en raison de la ranunculine (en) contenue dans ses feuilles et ses racines. Ce glycoside se transforme en anémonine lorsque la plante est séchée.
 </t>
         </is>
       </c>
